--- a/data/georgia_census/racha/oni/population_total.xlsx
+++ b/data/georgia_census/racha/oni/population_total.xlsx
@@ -1354,13 +1354,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{270DF496-EA4D-4DCE-A873-BEF97D2BC0AB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED391468-D112-41D8-979F-76B76F094ECC}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D98A20E6-E342-4CCA-A7B7-20821479D3F8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73EB9E53-22A9-42B0-A9F3-17F6C7682E0B}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9EDC06C6-8220-41F8-B3F1-396F307FB413}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B95D5EA5-A8F0-4A7D-8161-5BA3EA150C92}"/>
 </file>